--- a/biology/Zoologie/Celmia/Celmia.xlsx
+++ b/biology/Zoologie/Celmia/Celmia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia est un genre d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Kurt Johnson (d) en 1991.
 </t>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Celmia anastomosis (Draudt, [1918]) présent au Brésil, au Guyana et en Guyane
-Celmia celmus (Cramer, [1775]) présent au Brésil, en Colombie, en Guyane, au Mexique et au Surinam
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Celmia anastomosis (Draudt, ) présent au Brésil, au Guyana et en Guyane
+Celmia celmus (Cramer, ) présent au Brésil, en Colombie, en Guyane, au Mexique et au Surinam
 Celmia color (Druce, 1907) présent au Brésil, au Guyana et en Guyane
 Celmia conoveria (Schaus, 1902) présent au Brésil et en Guyane
 Celmia mecrida (Hewitson, 1867) présent au Brésil et en Guyane
-Celmia uzza (Hewitson, 1873) présent au Brésil[1],[2]</t>
+Celmia uzza (Hewitson, 1873) présent au Brésil,</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Celmia sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Celmia sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Celmia, sur Wikimedia CommonsCelmia, sur Wikispecies
 </t>
